--- a/book/veri2.xlsx
+++ b/book/veri2.xlsx
@@ -386,512 +386,512 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.36</v>
+        <v>-1.12</v>
       </c>
       <c r="B2">
-        <v>0.52</v>
+        <v>-1.12</v>
       </c>
       <c r="C2">
-        <v>-0.85</v>
+        <v>-1.52</v>
       </c>
       <c r="D2">
-        <v>0.8100000000000001</v>
+        <v>-0.37</v>
       </c>
       <c r="E2">
-        <v>0.34</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-1.79</v>
+        <v>0.34</v>
       </c>
       <c r="B3">
-        <v>-1.55</v>
+        <v>-0.45</v>
       </c>
       <c r="C3">
-        <v>0.24</v>
+        <v>-0.21</v>
       </c>
       <c r="D3">
-        <v>-0.17</v>
+        <v>0.82</v>
       </c>
       <c r="E3">
-        <v>0.32</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.13</v>
+        <v>0.49</v>
       </c>
       <c r="B4">
-        <v>-0.62</v>
+        <v>0.47</v>
       </c>
       <c r="C4">
-        <v>-0.63</v>
+        <v>-0.57</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-0.06</v>
       </c>
       <c r="E4">
-        <v>-0.41</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.58</v>
+        <v>0.14</v>
       </c>
       <c r="B5">
-        <v>-0.31</v>
+        <v>-1.18</v>
       </c>
       <c r="C5">
-        <v>0.43</v>
+        <v>-1.39</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="E5">
-        <v>0.75</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.04</v>
+        <v>-0.12</v>
       </c>
       <c r="B6">
-        <v>-0.3</v>
+        <v>1.47</v>
       </c>
       <c r="C6">
-        <v>2.55</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D6">
-        <v>-1.34</v>
+        <v>0.93</v>
       </c>
       <c r="E6">
-        <v>-1.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>-1.31</v>
       </c>
       <c r="C7">
-        <v>-0.95</v>
+        <v>-0.43</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="E7">
-        <v>-1.26</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.66</v>
+        <v>-1.07</v>
       </c>
       <c r="B8">
-        <v>1.22</v>
+        <v>-0.1</v>
       </c>
       <c r="C8">
-        <v>-1.35</v>
+        <v>-0.59</v>
       </c>
       <c r="D8">
-        <v>1.52</v>
+        <v>-1.07</v>
       </c>
       <c r="E8">
-        <v>-0.2</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-1.34</v>
+        <v>-0.8</v>
       </c>
       <c r="B9">
-        <v>0.05</v>
+        <v>2.37</v>
       </c>
       <c r="C9">
-        <v>-0.48</v>
+        <v>0.98</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>-0.24</v>
       </c>
       <c r="E9">
-        <v>-2.16</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.93</v>
+        <v>-1.11</v>
       </c>
       <c r="B10">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="C10">
-        <v>-0.91</v>
+        <v>0.53</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="E10">
-        <v>-0.19</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.53</v>
+        <v>1.58</v>
       </c>
       <c r="B11">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="C11">
-        <v>1.26</v>
+        <v>-0.09</v>
       </c>
       <c r="D11">
-        <v>-1.34</v>
+        <v>1.17</v>
       </c>
       <c r="E11">
-        <v>0.29</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-2.7</v>
+        <v>1.5</v>
       </c>
       <c r="B12">
-        <v>0.44</v>
+        <v>-0.87</v>
       </c>
       <c r="C12">
-        <v>0.97</v>
+        <v>0.16</v>
       </c>
       <c r="D12">
-        <v>-0.7</v>
+        <v>-1.46</v>
       </c>
       <c r="E12">
-        <v>-0.68</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="B13">
-        <v>0.89</v>
+        <v>0.58</v>
       </c>
       <c r="C13">
-        <v>-0.48</v>
+        <v>-0.74</v>
       </c>
       <c r="D13">
-        <v>-1.18</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>-0.54</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.5</v>
+        <v>-1.23</v>
       </c>
       <c r="B14">
-        <v>1.09</v>
+        <v>-0.01</v>
       </c>
       <c r="C14">
-        <v>0.47</v>
+        <v>-0.2</v>
       </c>
       <c r="D14">
-        <v>0.16</v>
+        <v>0.85</v>
       </c>
       <c r="E14">
-        <v>0.71</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.87</v>
+        <v>-0</v>
       </c>
       <c r="B15">
-        <v>-0.18</v>
+        <v>-0.37</v>
       </c>
       <c r="C15">
-        <v>-0.53</v>
+        <v>1.1</v>
       </c>
       <c r="D15">
-        <v>-0.25</v>
+        <v>-1.62</v>
       </c>
       <c r="E15">
-        <v>0.65</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.33</v>
+        <v>1.51</v>
       </c>
       <c r="B16">
-        <v>1.06</v>
+        <v>0.32</v>
       </c>
       <c r="C16">
-        <v>1.75</v>
+        <v>-0.02</v>
       </c>
       <c r="D16">
-        <v>0.3</v>
+        <v>1.41</v>
       </c>
       <c r="E16">
-        <v>3.09</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.34</v>
+        <v>-0.48</v>
       </c>
       <c r="B17">
-        <v>-0.25</v>
+        <v>-0.49</v>
       </c>
       <c r="C17">
-        <v>-1.18</v>
+        <v>0.16</v>
       </c>
       <c r="D17">
-        <v>-0.77</v>
+        <v>-0.54</v>
       </c>
       <c r="E17">
-        <v>-1.39</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.62</v>
+        <v>0.8</v>
       </c>
       <c r="B18">
-        <v>-0.21</v>
+        <v>2.66</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>2.02</v>
       </c>
       <c r="D18">
-        <v>-1.48</v>
+        <v>0.28</v>
       </c>
       <c r="E18">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.14</v>
+        <v>-0.97</v>
       </c>
       <c r="B19">
-        <v>-0.5600000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="C19">
-        <v>1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="D19">
-        <v>0.15</v>
+        <v>-0.19</v>
       </c>
       <c r="E19">
-        <v>0.34</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B20">
-        <v>0.29</v>
+        <v>0.78</v>
       </c>
       <c r="C20">
-        <v>-0.55</v>
+        <v>0.96</v>
       </c>
       <c r="D20">
-        <v>-0.78</v>
+        <v>1.58</v>
       </c>
       <c r="E20">
-        <v>1.61</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-1.43</v>
+        <v>-0.96</v>
       </c>
       <c r="B21">
-        <v>-0.01</v>
+        <v>0.71</v>
       </c>
       <c r="C21">
-        <v>-0.47</v>
+        <v>1.79</v>
       </c>
       <c r="D21">
-        <v>-0.03</v>
+        <v>-1.48</v>
       </c>
       <c r="E21">
-        <v>-0.73</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1.8</v>
+        <v>-1.23</v>
       </c>
       <c r="B22">
-        <v>1.52</v>
+        <v>-0.54</v>
       </c>
       <c r="C22">
-        <v>-1.19</v>
+        <v>-1.06</v>
       </c>
       <c r="D22">
-        <v>0.38</v>
+        <v>-0.14</v>
       </c>
       <c r="E22">
-        <v>-0.63</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.32</v>
+        <v>-0.96</v>
       </c>
       <c r="B23">
-        <v>-1.43</v>
+        <v>0.89</v>
       </c>
       <c r="C23">
-        <v>0.33</v>
+        <v>0.02</v>
       </c>
       <c r="D23">
-        <v>-0.97</v>
+        <v>-0.95</v>
       </c>
       <c r="E23">
-        <v>-1.17</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.17</v>
+        <v>-0.87</v>
       </c>
       <c r="B24">
-        <v>-1.64</v>
+        <v>-0.35</v>
       </c>
       <c r="C24">
-        <v>0.07000000000000001</v>
+        <v>-0.39</v>
       </c>
       <c r="D24">
-        <v>1.4</v>
+        <v>0.41</v>
       </c>
       <c r="E24">
-        <v>-0.55</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.2</v>
+        <v>-0.91</v>
       </c>
       <c r="B25">
-        <v>-0.28</v>
+        <v>-1.01</v>
       </c>
       <c r="C25">
-        <v>0.41</v>
+        <v>-0.49</v>
       </c>
       <c r="D25">
-        <v>0.75</v>
+        <v>2.23</v>
       </c>
       <c r="E25">
-        <v>-0.11</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-1.34</v>
+        <v>0.74</v>
       </c>
       <c r="B26">
-        <v>-0.05</v>
+        <v>1.88</v>
       </c>
       <c r="C26">
-        <v>-0.05</v>
+        <v>-1.05</v>
       </c>
       <c r="D26">
-        <v>-0.67</v>
+        <v>-1.51</v>
       </c>
       <c r="E26">
-        <v>-1.09</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.58</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B27">
-        <v>-0.28</v>
+        <v>-0.93</v>
       </c>
       <c r="C27">
-        <v>0.49</v>
+        <v>-0.9</v>
       </c>
       <c r="D27">
-        <v>0.06</v>
+        <v>-0.06</v>
       </c>
       <c r="E27">
-        <v>-1.43</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.12</v>
+        <v>-0.32</v>
       </c>
       <c r="B28">
-        <v>0.89</v>
+        <v>-0.29</v>
       </c>
       <c r="C28">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="D28">
-        <v>-0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="E28">
-        <v>-0.26</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.1</v>
+        <v>-1.09</v>
       </c>
       <c r="B29">
-        <v>0.74</v>
+        <v>-0.61</v>
       </c>
       <c r="C29">
-        <v>-0.96</v>
+        <v>0.59</v>
       </c>
       <c r="D29">
-        <v>0.11</v>
+        <v>1.54</v>
       </c>
       <c r="E29">
-        <v>0.18</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-2.65</v>
+        <v>-1.02</v>
       </c>
       <c r="B30">
-        <v>-1.86</v>
+        <v>-0.95</v>
       </c>
       <c r="C30">
-        <v>0.48</v>
+        <v>0.78</v>
       </c>
       <c r="D30">
-        <v>0.33</v>
+        <v>-0.98</v>
       </c>
       <c r="E30">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.14</v>
+        <v>-0.77</v>
       </c>
       <c r="B31">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="C31">
-        <v>-0.21</v>
+        <v>1.56</v>
       </c>
       <c r="D31">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>-0.34</v>
+        <v>2.51</v>
       </c>
     </row>
   </sheetData>
